--- a/Schedule Template2.xlsx
+++ b/Schedule Template2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Project Planner</t>
   </si>
@@ -62,39 +62,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -181,36 +148,15 @@
     <t xml:space="preserve"> Period Highlight:</t>
   </si>
   <si>
-    <t>Player &amp; Enemy Modeling</t>
-  </si>
-  <si>
     <t>Screen/Window/Menu 2-D Art</t>
   </si>
   <si>
-    <t>Testing Stage 1</t>
-  </si>
-  <si>
     <t>Mepsto's Junk Yard Assest Modeling</t>
   </si>
   <si>
     <t>Lower City Assest Modeling</t>
   </si>
   <si>
-    <t>NPC/Citizen AI Code</t>
-  </si>
-  <si>
-    <t>Effect/Lighting Engine Code</t>
-  </si>
-  <si>
-    <t>Testing Stage 2</t>
-  </si>
-  <si>
-    <t>Open World Modeling: Mepsto's Junk Yard</t>
-  </si>
-  <si>
-    <t>Open World Modeling: Lower City</t>
-  </si>
-  <si>
     <t>Physics Engine Coding</t>
   </si>
   <si>
@@ -224,6 +170,75 @@
   </si>
   <si>
     <t>Enemy AI Coding</t>
+  </si>
+  <si>
+    <t>Upper City Assest Modeling</t>
+  </si>
+  <si>
+    <t>Extra Character Modeling</t>
+  </si>
+  <si>
+    <t>Screen/Window/Menu Coding</t>
+  </si>
+  <si>
+    <t>Screen/Window/Menu SFX</t>
+  </si>
+  <si>
+    <t>Effects/Lighting Engine Code</t>
+  </si>
+  <si>
+    <t>GUI Coding</t>
+  </si>
+  <si>
+    <t>NPC/Citizen AI Coding</t>
+  </si>
+  <si>
+    <t>Mission/s Coding</t>
+  </si>
+  <si>
+    <t>GUI 2D-Art</t>
+  </si>
+  <si>
+    <t>Enemy 3-D Modeling</t>
+  </si>
+  <si>
+    <t>Player 3-D Modeling</t>
+  </si>
+  <si>
+    <t>Mepsto's Junk Yard Assest Coding</t>
+  </si>
+  <si>
+    <t>Player and Enemy SFX</t>
+  </si>
+  <si>
+    <t>Final Script Writing</t>
+  </si>
+  <si>
+    <t>Final Script Editing</t>
+  </si>
+  <si>
+    <t>Lower City NPC/Citizen 3-D Modeling</t>
+  </si>
+  <si>
+    <t>Finalizing Mission Structure</t>
+  </si>
+  <si>
+    <t>Upper City Assest Coding</t>
+  </si>
+  <si>
+    <t>Lower City Assest Coding</t>
+  </si>
+  <si>
+    <t>Remaining SFX</t>
+  </si>
+  <si>
+    <t>Open World Modeling</t>
+  </si>
+  <si>
+    <t>Open World Coding</t>
+  </si>
+  <si>
+    <t>Mission/s Implemention</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,35 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="106">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -517,6 +560,769 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
@@ -530,6 +1336,571 @@
         </top>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -953,10 +2324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ34"/>
+  <dimension ref="B2:BQ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -988,7 +2359,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1008,11 +2379,11 @@
       </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1020,7 +2391,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,7 +2673,7 @@
     </row>
     <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -1322,7 +2693,7 @@
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C11" s="16">
         <v>2</v>
@@ -1342,7 +2713,7 @@
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
@@ -1362,7 +2733,7 @@
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -1401,8 +2772,8 @@
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>26</v>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="16">
         <v>5</v>
@@ -1422,7 +2793,7 @@
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" s="16">
         <v>5</v>
@@ -1441,8 +2812,8 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>27</v>
+      <c r="B17" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="16">
         <v>5</v>
@@ -1461,8 +2832,8 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>30</v>
+      <c r="B18" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="16">
         <v>6</v>
@@ -1481,8 +2852,8 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>32</v>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="18">
         <v>6</v>
@@ -1502,7 +2873,7 @@
     </row>
     <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="16">
         <v>9</v>
@@ -1521,8 +2892,8 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>33</v>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="16">
         <v>9</v>
@@ -1541,8 +2912,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>34</v>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="16">
         <v>9</v>
@@ -1562,7 +2933,7 @@
     </row>
     <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="16">
         <v>9</v>
@@ -1581,8 +2952,8 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>11</v>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="16">
         <v>10</v>
@@ -1601,8 +2972,8 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>12</v>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="16">
         <v>11</v>
@@ -1622,7 +2993,7 @@
     </row>
     <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C26" s="16">
         <v>12</v>
@@ -1642,7 +3013,7 @@
     </row>
     <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="16">
         <v>12</v>
@@ -1662,7 +3033,7 @@
     </row>
     <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C28" s="16">
         <v>14</v>
@@ -1681,8 +3052,8 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>16</v>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="16">
         <v>14</v>
@@ -1701,7 +3072,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="16">
@@ -1722,7 +3093,7 @@
     </row>
     <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C31" s="16">
         <v>15</v>
@@ -1742,7 +3113,7 @@
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32" s="16">
         <v>15</v>
@@ -1762,7 +3133,7 @@
     </row>
     <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C33" s="16">
         <v>15</v>
@@ -1781,8 +3152,8 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>21</v>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="16">
         <v>16</v>
@@ -1797,6 +3168,123 @@
         <v>30</v>
       </c>
       <c r="G34" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="16">
+        <v>16</v>
+      </c>
+      <c r="D35" s="16">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16">
+        <v>16</v>
+      </c>
+      <c r="F35" s="16">
+        <v>30</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="16">
+        <v>16</v>
+      </c>
+      <c r="D36" s="16">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16">
+        <v>16</v>
+      </c>
+      <c r="F36" s="16">
+        <v>30</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="16">
+        <v>16</v>
+      </c>
+      <c r="D37" s="16">
+        <v>28</v>
+      </c>
+      <c r="E37" s="16">
+        <v>16</v>
+      </c>
+      <c r="F37" s="16">
+        <v>30</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="16">
+        <v>16</v>
+      </c>
+      <c r="D38" s="16">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16">
+        <v>16</v>
+      </c>
+      <c r="F38" s="16">
+        <v>30</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="16">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16">
+        <v>28</v>
+      </c>
+      <c r="E39" s="16">
+        <v>16</v>
+      </c>
+      <c r="F39" s="16">
+        <v>30</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="16">
+        <v>16</v>
+      </c>
+      <c r="D40" s="16">
+        <v>28</v>
+      </c>
+      <c r="E40" s="16">
+        <v>16</v>
+      </c>
+      <c r="F40" s="16">
+        <v>30</v>
+      </c>
+      <c r="G40" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1805,39 +3293,190 @@
     <mergeCell ref="B2:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="I9:BP34">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="65" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="64" priority="51">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="63" priority="52">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="61" priority="54">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="60" priority="55">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>I$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BP35">
+    <cfRule type="expression" dxfId="55" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="46">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BP36">
+    <cfRule type="expression" dxfId="47" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BP37">
+    <cfRule type="expression" dxfId="39" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:BP38">
+    <cfRule type="expression" dxfId="31" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:BP39">
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:BP40">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Schedule Template2.xlsx
+++ b/Schedule Template2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Project Planner</t>
   </si>
@@ -148,9 +148,6 @@
     <t xml:space="preserve"> Period Highlight:</t>
   </si>
   <si>
-    <t>Screen/Window/Menu 2-D Art</t>
-  </si>
-  <si>
     <t>Mepsto's Junk Yard Assest Modeling</t>
   </si>
   <si>
@@ -175,15 +172,6 @@
     <t>Upper City Assest Modeling</t>
   </si>
   <si>
-    <t>Extra Character Modeling</t>
-  </si>
-  <si>
-    <t>Screen/Window/Menu Coding</t>
-  </si>
-  <si>
-    <t>Screen/Window/Menu SFX</t>
-  </si>
-  <si>
     <t>Effects/Lighting Engine Code</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>Mepsto's Junk Yard Assest Coding</t>
   </si>
   <si>
-    <t>Player and Enemy SFX</t>
-  </si>
-  <si>
     <t>Final Script Writing</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>Lower City Assest Coding</t>
   </si>
   <si>
-    <t>Remaining SFX</t>
-  </si>
-  <si>
     <t>Open World Modeling</t>
   </si>
   <si>
@@ -239,6 +221,63 @@
   </si>
   <si>
     <t>Mission/s Implemention</t>
+  </si>
+  <si>
+    <t>Player SFX</t>
+  </si>
+  <si>
+    <t>GUI SFX</t>
+  </si>
+  <si>
+    <t>Combat SFX</t>
+  </si>
+  <si>
+    <t>Enemy SFX</t>
+  </si>
+  <si>
+    <t>Lower City NPC/Citizen SFX</t>
+  </si>
+  <si>
+    <t>Lower City Assest SFX</t>
+  </si>
+  <si>
+    <t>Upper City Assest SFX</t>
+  </si>
+  <si>
+    <t>Mepsto's Junk Yard Assest SFX</t>
+  </si>
+  <si>
+    <t>Screen/Window/Menu/s Coding</t>
+  </si>
+  <si>
+    <t>Screen/Window/Menu/s 2-D Art</t>
+  </si>
+  <si>
+    <t>Screen/Window/Menu/s SFX</t>
+  </si>
+  <si>
+    <t>Casting Call for Voice Actors</t>
+  </si>
+  <si>
+    <t>Multiplayer Coding</t>
+  </si>
+  <si>
+    <t>Multiplayer GUI</t>
+  </si>
+  <si>
+    <t>Implement Voice Lines</t>
+  </si>
+  <si>
+    <t>Create Open Beta Version</t>
+  </si>
+  <si>
+    <t>Release Open Beta Version</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Release Final Game</t>
   </si>
 </sst>
 </file>
@@ -517,7 +556,7 @@
     <cellStyle name="Period Highlight Control" xfId="7"/>
     <cellStyle name="Project Headers" xfId="4"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="121">
     <dxf>
       <fill>
         <patternFill>
@@ -1312,6 +1351,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1323,19 +1390,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1901,6 +2024,139 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2039,7 +2295,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="43"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2324,10 +2580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ40"/>
+  <dimension ref="A2:BQ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2338,10 +2594,12 @@
     <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="2.75" style="1"/>
+    <col min="9" max="13" width="2.75" style="1"/>
+    <col min="14" max="14" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2609,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2366,7 +2624,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -2394,7 +2652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2407,12 +2665,12 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -2436,7 +2694,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2719,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2651,89 +2909,88 @@
       </c>
       <c r="BQ8" s="1"/>
     </row>
-    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
       <c r="D10" s="16">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16">
         <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
       </c>
       <c r="D11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="G11" s="17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="16">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -2741,299 +2998,284 @@
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16">
-        <v>8</v>
-      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="16">
         <v>4</v>
       </c>
       <c r="D14" s="16">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="16">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16">
-        <v>6</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="16">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3</v>
-      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="16">
         <v>5</v>
       </c>
       <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="16">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
       <c r="B17" s="15" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C17" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>6</v>
-      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
       <c r="B18" s="15" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C18" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>6</v>
-      </c>
-      <c r="F18" s="16">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16">
+        <v>8</v>
       </c>
       <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="16">
         <v>9</v>
       </c>
       <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <v>9</v>
-      </c>
-      <c r="F20" s="16">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+    <row r="21" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="16">
         <v>9</v>
       </c>
       <c r="D21" s="16">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16">
-        <v>9</v>
-      </c>
-      <c r="F21" s="16">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="16">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="18">
+        <v>10</v>
       </c>
       <c r="D22" s="16">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="16">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="16">
+        <v>12</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="16">
+        <v>13</v>
+      </c>
+      <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E22" s="16">
-        <v>9</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="16">
-        <v>9</v>
-      </c>
-      <c r="D23" s="16">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="16">
+        <v>13</v>
+      </c>
+      <c r="D26" s="16">
         <v>8</v>
       </c>
-      <c r="F23" s="16">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="16">
+        <v>14</v>
+      </c>
+      <c r="D27" s="16">
         <v>5</v>
       </c>
-      <c r="G23" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="16">
-        <v>10</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16">
-        <v>3</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="16">
-        <v>11</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>11</v>
-      </c>
-      <c r="F25" s="16">
-        <v>5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="16">
-        <v>12</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6</v>
-      </c>
-      <c r="E26" s="16">
-        <v>12</v>
-      </c>
-      <c r="F26" s="16">
-        <v>7</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="16">
-        <v>12</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>12</v>
-      </c>
-      <c r="F27" s="16">
-        <v>5</v>
-      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>27</v>
+    <row r="28" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="16">
         <v>14</v>
@@ -3041,441 +3283,1009 @@
       <c r="D28" s="16">
         <v>5</v>
       </c>
-      <c r="E28" s="16">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16">
-        <v>6</v>
-      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>21</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C29" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="16">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16">
-        <v>14</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="17">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="16">
         <v>17</v>
       </c>
-      <c r="C30" s="16">
-        <v>14</v>
-      </c>
       <c r="D30" s="16">
-        <v>7</v>
-      </c>
-      <c r="E30" s="16">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>23</v>
+      </c>
       <c r="B31" s="15" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C31" s="16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31" s="16">
         <v>4</v>
       </c>
-      <c r="E31" s="16">
-        <v>15</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="16">
+        <v>19</v>
+      </c>
+      <c r="D32" s="16">
+        <v>3</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="16">
+        <v>22</v>
+      </c>
+      <c r="D33" s="16">
+        <v>5</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="16">
+        <v>22</v>
+      </c>
+      <c r="D34" s="16">
+        <v>5</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="16">
+        <v>23</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="16">
+        <v>27</v>
+      </c>
+      <c r="D36" s="16">
+        <v>5</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="16">
+        <v>27</v>
+      </c>
+      <c r="D37" s="16">
+        <v>5</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="16">
+        <v>28</v>
+      </c>
+      <c r="D38" s="16">
+        <v>4</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="16">
+        <v>32</v>
+      </c>
+      <c r="D39" s="16">
+        <v>5</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="16">
+        <v>32</v>
+      </c>
+      <c r="D40" s="16">
+        <v>6</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="16">
+        <v>32</v>
+      </c>
+      <c r="D41" s="16">
         <v>8</v>
       </c>
-      <c r="G31" s="17">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="16">
-        <v>15</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="16">
+        <v>32</v>
+      </c>
+      <c r="D42" s="16">
+        <v>8</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="16">
+        <v>40</v>
+      </c>
+      <c r="D43" s="16">
+        <v>3</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="16">
+        <v>40</v>
+      </c>
+      <c r="D44" s="16">
         <v>5</v>
       </c>
-      <c r="E32" s="16">
-        <v>15</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="16">
+        <v>40</v>
+      </c>
+      <c r="D45" s="16">
         <v>3</v>
       </c>
-      <c r="G32" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="16">
+        <v>43</v>
+      </c>
+      <c r="D46" s="16">
+        <v>6</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>39</v>
       </c>
-      <c r="C33" s="16">
-        <v>15</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16">
-        <v>15</v>
-      </c>
-      <c r="F33" s="16">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="16">
+        <v>43</v>
+      </c>
+      <c r="D47" s="16">
+        <v>3</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="16">
+        <v>45</v>
+      </c>
+      <c r="D48" s="16">
+        <v>2</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="16">
+        <v>49</v>
+      </c>
+      <c r="D49" s="16">
+        <v>6</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+    </row>
+    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="16">
+        <v>55</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+    </row>
+    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="16">
+        <v>56</v>
+      </c>
+      <c r="D51" s="16">
+        <v>2</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>44</v>
       </c>
-      <c r="C34" s="16">
-        <v>16</v>
-      </c>
-      <c r="D34" s="16">
-        <v>28</v>
-      </c>
-      <c r="E34" s="16">
-        <v>16</v>
-      </c>
-      <c r="F34" s="16">
-        <v>30</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="16">
-        <v>16</v>
-      </c>
-      <c r="D35" s="16">
-        <v>28</v>
-      </c>
-      <c r="E35" s="16">
-        <v>16</v>
-      </c>
-      <c r="F35" s="16">
-        <v>30</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="16">
-        <v>16</v>
-      </c>
-      <c r="D36" s="16">
-        <v>28</v>
-      </c>
-      <c r="E36" s="16">
-        <v>16</v>
-      </c>
-      <c r="F36" s="16">
-        <v>30</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="16">
-        <v>16</v>
-      </c>
-      <c r="D37" s="16">
-        <v>28</v>
-      </c>
-      <c r="E37" s="16">
-        <v>16</v>
-      </c>
-      <c r="F37" s="16">
-        <v>30</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="16">
-        <v>16</v>
-      </c>
-      <c r="D38" s="16">
-        <v>28</v>
-      </c>
-      <c r="E38" s="16">
-        <v>16</v>
-      </c>
-      <c r="F38" s="16">
-        <v>30</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="16">
-        <v>16</v>
-      </c>
-      <c r="D39" s="16">
-        <v>28</v>
-      </c>
-      <c r="E39" s="16">
-        <v>16</v>
-      </c>
-      <c r="F39" s="16">
-        <v>30</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="16">
-        <v>16</v>
-      </c>
-      <c r="D40" s="16">
-        <v>28</v>
-      </c>
-      <c r="E40" s="16">
-        <v>16</v>
-      </c>
-      <c r="F40" s="16">
-        <v>30</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="B52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="16">
+        <v>58</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP34">
-    <cfRule type="expression" dxfId="65" priority="49">
+  <conditionalFormatting sqref="I15:BP16 I18:BP18 I31:BP32 I34:BP36 BP41:BP47 I20:BP26 I28:BP29 M9 U9:BP10 I11:BP13 I38:BP39 I41:BO48">
+    <cfRule type="expression" dxfId="120" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="51">
+    <cfRule type="expression" dxfId="119" priority="147">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="52">
+    <cfRule type="expression" dxfId="118" priority="148">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="117" priority="149">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="54">
+    <cfRule type="expression" dxfId="116" priority="150">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="55">
+    <cfRule type="expression" dxfId="115" priority="151">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="114" priority="155">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="113" priority="156">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="112" priority="152">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BP35">
-    <cfRule type="expression" dxfId="55" priority="41">
+  <conditionalFormatting sqref="I14:BP14">
+    <cfRule type="expression" dxfId="111" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="42">
+    <cfRule type="expression" dxfId="110" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="109" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="108" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="107" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="106" priority="94">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="105" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="104" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BP36">
-    <cfRule type="expression" dxfId="47" priority="33">
+  <conditionalFormatting sqref="I17:BP17">
+    <cfRule type="expression" dxfId="103" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="34">
+    <cfRule type="expression" dxfId="102" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="101" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="100" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="99" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="98" priority="86">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="97" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="96" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BP19">
+    <cfRule type="expression" dxfId="95" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="78">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:BP30">
+    <cfRule type="expression" dxfId="87" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="66">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="70">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:BP37">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="79" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="78" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="77" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="76" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="75" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="74" priority="62">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BP38">
-    <cfRule type="expression" dxfId="31" priority="17">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BP39">
-    <cfRule type="expression" dxfId="23" priority="9">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BP40">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="71" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="69" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="68" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="67" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="66" priority="54">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="65" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="64" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:BP33">
+    <cfRule type="expression" dxfId="63" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="46">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:BP27">
+    <cfRule type="expression" dxfId="55" priority="33">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="34">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="35">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="36">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="37">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="38">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BO52">
+    <cfRule type="expression" dxfId="47" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="30">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:T10">
+    <cfRule type="expression" dxfId="39" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="22">
+      <formula>N$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:M10">
+    <cfRule type="expression" dxfId="31" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:L9">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>I$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
